--- a/tests/data/yaml_loader_test_data.xlsx
+++ b/tests/data/yaml_loader_test_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16540" windowWidth="27640" xWindow="780" yWindow="960"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="d&quot;/&quot;m&quot;/&quot;yy" numFmtId="164"/>
-    <numFmt formatCode="d/m/yyyy" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="d&quot;/&quot;m&quot;/&quot;yy"/>
+    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -124,73 +124,73 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -503,11 +503,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col customWidth="1" max="5" min="5" style="19" width="37.33203125"/>
-    <col customWidth="1" max="13" min="13" style="19" width="22"/>
+    <col width="37.33203125" customWidth="1" style="19" min="5" max="5"/>
+    <col width="22" customWidth="1" style="19" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="32" r="1" s="19">
+    <row r="1" ht="32" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>variable</t>
@@ -584,7 +584,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="84" r="2" s="19">
+    <row r="2" ht="84" customHeight="1" s="19">
       <c r="A2" s="13" t="inlineStr">
         <is>
           <t>uk_population</t>
@@ -631,7 +631,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="46" r="3" s="19">
+    <row r="3" ht="46" customHeight="1" s="19">
       <c r="A3" s="13" t="inlineStr">
         <is>
           <t>energy_intensity_3g</t>
@@ -804,7 +804,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -833,6 +833,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/data/yaml_loader_test_data.xlsx
+++ b/tests/data/yaml_loader_test_data.xlsx
@@ -1,81 +1,197 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jedpreist/CodingStuff/DIMPACT/eam-core-provenance/tests/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF22A580-E7F4-9046-896D-7F5014551A4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>ref value</t>
+  </si>
+  <si>
+    <t>mean growth</t>
+  </si>
+  <si>
+    <t>initial_value_proportional_variation</t>
+  </si>
+  <si>
+    <t>variability growth</t>
+  </si>
+  <si>
+    <t>ref date</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>scenario notes</t>
+  </si>
+  <si>
+    <t>uk_population</t>
+  </si>
+  <si>
+    <t>interp</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>{"2016-06-01":65600000, "2021-06-01": 67170540, "2026-06-01": 68618160, "2031-06-01": 69875190 }</t>
+  </si>
+  <si>
+    <t>Office of National Statistics (ONS) 2016-based population projections https://www.ons.gov.uk/peoplepopulationandcommunity/populationandmigration/populationprojections/bulletins/nationalpopulationprojections/2016basedstatisticalbulletin</t>
+  </si>
+  <si>
+    <t>Uncertanity needs more research see for example https://researchbriefings.parliament.uk/ResearchBriefing/Summary/POST-PN-438/#fullreport</t>
+  </si>
+  <si>
+    <t>energy_intensity_3g</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>J / bit</t>
+  </si>
+  <si>
+    <t>Andrae, Anders, and Tomas Edler. 2015. “On Global Electricity Usage of Communication Technology: Trends to 2030.” Challenges 6 (1): 117–57. doi:10.3390/challe6010117.</t>
+  </si>
+  <si>
+    <t>Values and variability based on YouTube model - using mean value from asymetic triangular distribution - the initial_value_proportional_variation from the mean difference from the mean ends of triangular distribution) to make it symetric</t>
+  </si>
+  <si>
+    <t>intensity</t>
+  </si>
+  <si>
+    <t>j/b values from IEEE Magazine article, Schien and Preist 2014. However, Growth rate from Krug 2014 based on BT networking. The j/b values are similar orders of magnitude but needs cross validating. Reason for not using them directly is that the Krug paper does not split out the metro, core as needed for current model implimentation</t>
+  </si>
+  <si>
+    <t>bitrate</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>{"2016-06-01":5.5, "2031-06-01":5.5}</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d&quot;/&quot;m&quot;/&quot;yy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="9">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="-webkit-standard"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -127,70 +243,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -490,317 +615,258 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Z7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col width="37.33203125" customWidth="1" style="19" min="5" max="5"/>
-    <col width="22" customWidth="1" style="19" min="13" max="13"/>
+    <col min="5" max="5" width="37.33203125" style="18" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="18"/>
+    <col min="14" max="14" width="22" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1" s="19">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>scenario</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>ref value</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>mean growth</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>initial_value_proportional_variation</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>variability growth</t>
-        </is>
-      </c>
-      <c r="I1" s="4" t="inlineStr">
-        <is>
-          <t>ref date</t>
-        </is>
-      </c>
-      <c r="J1" s="4" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="K1" s="4" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="L1" s="4" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-      <c r="M1" s="5" t="inlineStr">
-        <is>
-          <t>comment</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>control</t>
-        </is>
-      </c>
-      <c r="O1" s="6" t="inlineStr">
-        <is>
-          <t>scenario notes</t>
-        </is>
+    <row r="1" spans="1:27" ht="32" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" ht="84" customHeight="1" s="19">
-      <c r="A2" s="13" t="inlineStr">
-        <is>
-          <t>uk_population</t>
-        </is>
-      </c>
-      <c r="B2" s="13" t="n"/>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>interp</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>linear</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>{"2016-06-01":65600000, "2021-06-01": 67170540, "2026-06-01": 68618160, "2031-06-01": 69875190 }</t>
-        </is>
-      </c>
-      <c r="F2" s="13" t="n">
+    <row r="2" spans="1:27" ht="84" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="12">
         <v>0</v>
       </c>
-      <c r="G2" s="13" t="n">
+      <c r="G2" s="12">
         <v>0.05</v>
       </c>
-      <c r="H2" s="13" t="n">
+      <c r="H2" s="12">
         <v>0.1</v>
       </c>
-      <c r="I2" s="9" t="n">
+      <c r="I2" s="8">
         <v>42522</v>
       </c>
-      <c r="J2" s="13" t="n"/>
-      <c r="K2" s="13" t="n"/>
-      <c r="L2" s="13" t="inlineStr">
-        <is>
-          <t>Office of National Statistics (ONS) 2016-based population projections https://www.ons.gov.uk/peoplepopulationandcommunity/populationandmigration/populationprojections/bulletins/nationalpopulationprojections/2016basedstatisticalbulletin</t>
-        </is>
-      </c>
-      <c r="M2" s="6" t="inlineStr">
-        <is>
-          <t>Uncertanity needs more research see for example https://researchbriefings.parliament.uk/ResearchBriefing/Summary/POST-PN-438/#fullreport</t>
-        </is>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12">
+        <v>0</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" ht="46" customHeight="1" s="19">
-      <c r="A3" s="13" t="inlineStr">
-        <is>
-          <t>energy_intensity_3g</t>
-        </is>
-      </c>
-      <c r="B3" s="13" t="n"/>
-      <c r="C3" s="13" t="inlineStr">
-        <is>
-          <t>exp</t>
-        </is>
-      </c>
-      <c r="D3" s="13" t="n"/>
-      <c r="E3" s="14" t="n">
-        <v>0.00135</v>
-      </c>
-      <c r="F3" s="13" t="n">
+    <row r="3" spans="1:27" ht="46" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="F3" s="12">
         <v>-0.22</v>
       </c>
-      <c r="G3" s="13" t="n">
+      <c r="G3" s="12">
         <v>0.15</v>
       </c>
-      <c r="H3" s="13" t="n">
+      <c r="H3" s="12">
         <v>0.1</v>
       </c>
-      <c r="I3" s="15" t="n">
+      <c r="I3" s="14">
         <v>40179</v>
       </c>
-      <c r="J3" s="16" t="inlineStr">
-        <is>
-          <t>J / bit</t>
-        </is>
-      </c>
-      <c r="K3" s="13" t="n"/>
-      <c r="L3" s="17" t="inlineStr">
-        <is>
-          <t>Andrae, Anders, and Tomas Edler. 2015. “On Global Electricity Usage of Communication Technology: Trends to 2030.” Challenges 6 (1): 117–57. doi:10.3390/challe6010117.</t>
-        </is>
-      </c>
-      <c r="M3" s="6" t="inlineStr">
-        <is>
-          <t>Values and variability based on YouTube model - using mean value from asymetic triangular distribution - the initial_value_proportional_variation from the mean difference from the mean ends of triangular distribution) to make it symetric</t>
-        </is>
+      <c r="J3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12">
+        <v>1</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>intensity</t>
-        </is>
-      </c>
-      <c r="B4" s="13" t="n"/>
-      <c r="C4" s="13" t="inlineStr">
-        <is>
-          <t>exp</t>
-        </is>
-      </c>
-      <c r="D4" s="13" t="n"/>
-      <c r="E4" s="18" t="n">
-        <v>1.48922686e-06</v>
-      </c>
-      <c r="F4" s="13" t="n">
+    <row r="4" spans="1:27">
+      <c r="A4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="17">
+        <v>1.4892268600000001E-6</v>
+      </c>
+      <c r="F4" s="12">
         <v>-0.16</v>
       </c>
-      <c r="G4" s="13" t="n">
+      <c r="G4" s="12">
         <v>0.1</v>
       </c>
-      <c r="H4" s="13" t="n">
+      <c r="H4" s="12">
         <v>0.1</v>
       </c>
-      <c r="I4" s="15" t="n">
+      <c r="I4" s="14">
         <v>41640</v>
       </c>
-      <c r="J4" s="16" t="inlineStr">
-        <is>
-          <t>J / bit</t>
-        </is>
-      </c>
-      <c r="K4" s="13" t="n"/>
-      <c r="L4" s="17" t="inlineStr">
-        <is>
-          <t>j/b values from IEEE Magazine article, Schien and Preist 2014. However, Growth rate from Krug 2014 based on BT networking. The j/b values are similar orders of magnitude but needs cross validating. Reason for not using them directly is that the Krug paper does not split out the metro, core as needed for current model implimentation</t>
-        </is>
-      </c>
-      <c r="M4" s="6" t="n"/>
-      <c r="N4" s="13" t="n"/>
-      <c r="O4" s="6" t="n"/>
-      <c r="P4" s="13" t="n"/>
-      <c r="Q4" s="13" t="n"/>
-      <c r="R4" s="13" t="n"/>
-      <c r="S4" s="13" t="n"/>
-      <c r="T4" s="13" t="n"/>
-      <c r="U4" s="13" t="n"/>
-      <c r="V4" s="13" t="n"/>
-      <c r="W4" s="13" t="n"/>
-      <c r="X4" s="13" t="n"/>
-      <c r="Y4" s="13" t="n"/>
-      <c r="Z4" s="13" t="n"/>
+      <c r="J4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12">
+        <v>2</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
     </row>
-    <row r="5">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>bitrate</t>
-        </is>
-      </c>
-      <c r="C5" s="13" t="inlineStr">
-        <is>
-          <t>exp</t>
-        </is>
-      </c>
-      <c r="E5" s="18" t="n">
+    <row r="5" spans="1:27">
+      <c r="A5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="17">
         <v>10000000</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="F5" s="12">
         <v>0.16</v>
       </c>
-      <c r="G5" s="13" t="n">
+      <c r="G5" s="12">
         <v>0.1</v>
       </c>
-      <c r="H5" s="13" t="n">
+      <c r="H5" s="12">
         <v>0.1</v>
       </c>
-      <c r="I5" s="15" t="n">
+      <c r="I5" s="14">
         <v>41640</v>
       </c>
-      <c r="J5" s="20" t="inlineStr">
-        <is>
-          <t>bit</t>
-        </is>
+      <c r="J5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="20">
+        <v>3</v>
       </c>
     </row>
-    <row r="6"/>
-    <row r="7">
-      <c r="A7" s="12" t="inlineStr">
-        <is>
-          <t>power</t>
-        </is>
-      </c>
-      <c r="B7" s="13" t="n"/>
-      <c r="C7" s="13" t="inlineStr">
-        <is>
-          <t>interp</t>
-        </is>
-      </c>
-      <c r="D7" s="13" t="inlineStr">
-        <is>
-          <t>linear</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>{"2016-06-01":5.5, "2031-06-01":5.5}</t>
-        </is>
-      </c>
-      <c r="F7" s="13" t="n">
+    <row r="6" spans="1:27">
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12">
         <v>0</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="9">
         <v>0.2</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="9">
         <v>0.1</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="I7" s="10">
         <v>42370</v>
       </c>
-      <c r="J7" s="13" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
+      <c r="J7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="20">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -809,26 +875,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>version</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1">
         <v>2</v>
       </c>
     </row>

--- a/tests/data/yaml_loader_test_data.xlsx
+++ b/tests/data/yaml_loader_test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jedpreist/CodingStuff/DIMPACT/eam-core-provenance/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF22A580-E7F4-9046-896D-7F5014551A4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA538C81-28C7-604F-AE6E-A1D25450F2FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>variable</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>user name</t>
+  </si>
+  <si>
+    <t>ui variable</t>
   </si>
 </sst>
 </file>
@@ -616,20 +625,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="5" max="5" width="37.33203125" style="18" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="18"/>
-    <col min="14" max="14" width="22" style="18" customWidth="1"/>
+    <col min="12" max="15" width="10.83203125" style="18"/>
+    <col min="17" max="17" width="22" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="32" customHeight="1">
+    <row r="1" spans="1:30" ht="32" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,22 +673,31 @@
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="84" customHeight="1">
+    <row r="2" spans="1:30" ht="84" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
@@ -707,17 +725,22 @@
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="12">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12">
         <v>0</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="O2" s="12">
+        <v>0</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="46" customHeight="1">
+    <row r="3" spans="1:30" ht="46" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
@@ -745,17 +768,22 @@
         <v>23</v>
       </c>
       <c r="K3" s="12"/>
-      <c r="L3" s="12">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12">
         <v>1</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="O3" s="12">
+        <v>1</v>
+      </c>
+      <c r="P3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:30">
       <c r="A4" s="11" t="s">
         <v>26</v>
       </c>
@@ -783,18 +811,20 @@
         <v>23</v>
       </c>
       <c r="K4" s="12"/>
-      <c r="L4" s="12">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12">
         <v>2</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="O4" s="12">
+        <v>2</v>
+      </c>
+      <c r="P4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="12"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
+      <c r="S4" s="6"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
@@ -803,8 +833,11 @@
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:30">
       <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
@@ -829,14 +862,18 @@
       <c r="J5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="20">
+      <c r="N5" s="20">
         <v>3</v>
       </c>
+      <c r="O5" s="20">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:27">
-      <c r="L6" s="20"/>
+    <row r="6" spans="1:30">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:30">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
@@ -865,7 +902,10 @@
       <c r="J7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="20">
+      <c r="N7" s="20">
+        <v>4</v>
+      </c>
+      <c r="O7" s="20">
         <v>4</v>
       </c>
     </row>

--- a/tests/data/yaml_loader_test_data.xlsx
+++ b/tests/data/yaml_loader_test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jedpreist/CodingStuff/DIMPACT/eam-core-provenance/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA538C81-28C7-604F-AE6E-A1D25450F2FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBECA613-554B-4943-A0DD-258129087A79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="560" windowWidth="27640" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>linear</t>
   </si>
   <si>
-    <t>{"2016-06-01":65600000, "2021-06-01": 67170540, "2026-06-01": 68618160, "2031-06-01": 69875190 }</t>
-  </si>
-  <si>
     <t>Office of National Statistics (ONS) 2016-based population projections https://www.ons.gov.uk/peoplepopulationandcommunity/populationandmigration/populationprojections/bulletins/nationalpopulationprojections/2016basedstatisticalbulletin</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>ui variable</t>
+  </si>
+  <si>
+    <t>{"2016-06-01":65600000, "2021-06-01": 67170540 }</t>
   </si>
 </sst>
 </file>
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -673,16 +673,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="N1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>11</v>
@@ -709,7 +709,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F2" s="12">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="P2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="46" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13">
@@ -765,7 +765,7 @@
         <v>40179</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
@@ -777,19 +777,19 @@
         <v>1</v>
       </c>
       <c r="P3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="17">
@@ -808,7 +808,7 @@
         <v>41640</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -820,7 +820,7 @@
         <v>2</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="12"/>
@@ -839,10 +839,10 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="17">
         <v>10000000</v>
@@ -860,7 +860,7 @@
         <v>41640</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N5" s="20">
         <v>3</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="12">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>42370</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="20">
         <v>4</v>
@@ -926,7 +926,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1">
         <v>2</v>
